--- a/docs/基础数据：策略组定义.xlsx
+++ b/docs/基础数据：策略组定义.xlsx
@@ -651,99 +651,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>flowtype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotpos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slottype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告位类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekhours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台特性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE WAP/PC WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE WAP/PC WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE APP/OTT APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络运营商；可通过IP去查询所属运营商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>流量类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flowtype</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>slotpos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>slottype</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告位类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weekhours</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台特性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE WAP/PC WEB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE WAP/PC WEB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE APP/OTT APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络运营商；可通过IP去查询所属运营商</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC WEB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1438,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
         <v>171</v>
@@ -1449,7 +1449,7 @@
         <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
         <v>173</v>
@@ -1460,7 +1460,7 @@
         <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
         <v>178</v>
@@ -1471,7 +1471,7 @@
         <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
         <v>179</v>
@@ -1482,7 +1482,7 @@
         <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
         <v>180</v>
@@ -1493,7 +1493,7 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
         <v>181</v>
@@ -1504,7 +1504,7 @@
         <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>182</v>
@@ -1515,7 +1515,7 @@
         <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>185</v>
@@ -1526,7 +1526,7 @@
         <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
         <v>187</v>
@@ -1537,7 +1537,7 @@
         <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
         <v>189</v>
@@ -1548,7 +1548,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
         <v>191</v>
@@ -1556,68 +1556,68 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
         <v>211</v>
-      </c>
-      <c r="D12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
         <v>194</v>
-      </c>
-      <c r="C14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" t="s">
         <v>198</v>
-      </c>
-      <c r="C16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
         <v>200</v>
-      </c>
-      <c r="C17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
